--- a/INTLINE/data/134/DEUSTATIS/National accounts - Employment years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Employment years.xlsx
@@ -216,7 +216,7 @@
     <t>Agency, Nürnberg.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:34:50</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:40:25</t>
   </si>
 </sst>
 </file>
@@ -11903,40 +11903,40 @@
         <v>20</v>
       </c>
       <c r="C277" t="n" s="12">
-        <v>8.396</v>
+        <v>8.386</v>
       </c>
       <c r="D277" t="n" s="12">
-        <v>468.194</v>
+        <v>468.584</v>
       </c>
       <c r="E277" t="n" s="12">
-        <v>427.97</v>
+        <v>428.436</v>
       </c>
       <c r="F277" t="n" s="12">
-        <v>96.986</v>
+        <v>96.949</v>
       </c>
       <c r="G277" t="n" s="12">
-        <v>321.072</v>
+        <v>321.601</v>
       </c>
       <c r="H277" t="n" s="12">
-        <v>103.033</v>
+        <v>103.178</v>
       </c>
       <c r="I277" t="n" s="12">
-        <v>74.853</v>
+        <v>74.855</v>
       </c>
       <c r="J277" t="n" s="12">
-        <v>18.026</v>
+        <v>18.092</v>
       </c>
       <c r="K277" t="n" s="12">
-        <v>236.945</v>
+        <v>237.068</v>
       </c>
       <c r="L277" t="n" s="12">
-        <v>517.52</v>
+        <v>517.153</v>
       </c>
       <c r="M277" t="n" s="12">
-        <v>71.88</v>
+        <v>72.026</v>
       </c>
       <c r="N277" t="n" s="12">
-        <v>1916.905</v>
+        <v>1917.892</v>
       </c>
     </row>
     <row r="278">
@@ -11947,40 +11947,40 @@
         <v>20</v>
       </c>
       <c r="C278" t="n" s="12">
-        <v>7.026</v>
+        <v>7.02</v>
       </c>
       <c r="D278" t="n" s="12">
-        <v>383.521</v>
+        <v>383.831</v>
       </c>
       <c r="E278" t="n" s="12">
-        <v>351.491</v>
+        <v>351.862</v>
       </c>
       <c r="F278" t="n" s="12">
-        <v>81.4</v>
+        <v>81.378</v>
       </c>
       <c r="G278" t="n" s="12">
-        <v>268.1</v>
+        <v>268.603</v>
       </c>
       <c r="H278" t="n" s="12">
-        <v>86.058</v>
+        <v>86.185</v>
       </c>
       <c r="I278" t="n" s="12">
-        <v>60.168</v>
+        <v>60.18</v>
       </c>
       <c r="J278" t="n" s="12">
-        <v>14.767</v>
+        <v>14.83</v>
       </c>
       <c r="K278" t="n" s="12">
-        <v>197.355</v>
+        <v>197.469</v>
       </c>
       <c r="L278" t="n" s="12">
-        <v>410.08</v>
+        <v>409.737</v>
       </c>
       <c r="M278" t="n" s="12">
-        <v>59.055</v>
+        <v>59.166</v>
       </c>
       <c r="N278" t="n" s="12">
-        <v>1567.53</v>
+        <v>1568.399</v>
       </c>
     </row>
     <row r="279">
@@ -11991,40 +11991,40 @@
         <v>23</v>
       </c>
       <c r="C279" t="n" s="12">
-        <v>562.0</v>
+        <v>563.0</v>
       </c>
       <c r="D279" t="n" s="12">
-        <v>8080.0</v>
+        <v>8088.0</v>
       </c>
       <c r="E279" t="n" s="12">
-        <v>7471.0</v>
+        <v>7479.0</v>
       </c>
       <c r="F279" t="n" s="12">
-        <v>2607.0</v>
+        <v>2606.0</v>
       </c>
       <c r="G279" t="n" s="12">
-        <v>9875.0</v>
+        <v>9869.0</v>
       </c>
       <c r="H279" t="n" s="12">
-        <v>1430.0</v>
+        <v>1431.0</v>
       </c>
       <c r="I279" t="n" s="12">
-        <v>1080.0</v>
+        <v>1081.0</v>
       </c>
       <c r="J279" t="n" s="12">
-        <v>478.0</v>
+        <v>479.0</v>
       </c>
       <c r="K279" t="n" s="12">
-        <v>6128.0</v>
+        <v>6125.0</v>
       </c>
       <c r="L279" t="n" s="12">
-        <v>11717.0</v>
+        <v>11711.0</v>
       </c>
       <c r="M279" t="n" s="12">
-        <v>2963.0</v>
+        <v>2965.0</v>
       </c>
       <c r="N279" t="n" s="12">
-        <v>44920.0</v>
+        <v>44918.0</v>
       </c>
     </row>
     <row r="280">
@@ -12035,40 +12035,40 @@
         <v>23</v>
       </c>
       <c r="C280" t="n" s="12">
-        <v>357.0</v>
+        <v>358.0</v>
       </c>
       <c r="D280" t="n" s="12">
-        <v>7852.0</v>
+        <v>7860.0</v>
       </c>
       <c r="E280" t="n" s="12">
-        <v>7254.0</v>
+        <v>7262.0</v>
       </c>
       <c r="F280" t="n" s="12">
-        <v>2161.0</v>
+        <v>2160.0</v>
       </c>
       <c r="G280" t="n" s="12">
-        <v>9088.0</v>
+        <v>9082.0</v>
       </c>
       <c r="H280" t="n" s="12">
-        <v>1306.0</v>
+        <v>1307.0</v>
       </c>
       <c r="I280" t="n" s="12">
-        <v>958.0</v>
+        <v>959.0</v>
       </c>
       <c r="J280" t="n" s="12">
-        <v>432.0</v>
+        <v>433.0</v>
       </c>
       <c r="K280" t="n" s="12">
-        <v>5272.0</v>
+        <v>5269.0</v>
       </c>
       <c r="L280" t="n" s="12">
-        <v>11041.0</v>
+        <v>11035.0</v>
       </c>
       <c r="M280" t="n" s="12">
-        <v>2524.0</v>
+        <v>2526.0</v>
       </c>
       <c r="N280" t="n" s="12">
-        <v>40991.0</v>
+        <v>40989.0</v>
       </c>
     </row>
     <row r="281">
@@ -12079,40 +12079,40 @@
         <v>26</v>
       </c>
       <c r="C281" t="n" s="12">
-        <v>936.0</v>
+        <v>934.0</v>
       </c>
       <c r="D281" t="n" s="12">
-        <v>11625.0</v>
+        <v>11601.0</v>
       </c>
       <c r="E281" t="n" s="12">
-        <v>10694.0</v>
+        <v>10672.0</v>
       </c>
       <c r="F281" t="n" s="12">
-        <v>4067.0</v>
+        <v>4060.0</v>
       </c>
       <c r="G281" t="n" s="12">
-        <v>12709.0</v>
+        <v>12685.0</v>
       </c>
       <c r="H281" t="n" s="12">
-        <v>2156.0</v>
+        <v>2153.0</v>
       </c>
       <c r="I281" t="n" s="12">
-        <v>1582.0</v>
+        <v>1581.0</v>
       </c>
       <c r="J281" t="n" s="12">
         <v>583.0</v>
       </c>
       <c r="K281" t="n" s="12">
-        <v>8168.0</v>
+        <v>8149.0</v>
       </c>
       <c r="L281" t="n" s="12">
-        <v>15666.0</v>
+        <v>15627.0</v>
       </c>
       <c r="M281" t="n" s="12">
-        <v>3121.0</v>
+        <v>3117.0</v>
       </c>
       <c r="N281" t="n" s="12">
-        <v>60611.0</v>
+        <v>60490.0</v>
       </c>
     </row>
     <row r="282">
@@ -12123,40 +12123,40 @@
         <v>26</v>
       </c>
       <c r="C282" t="n" s="12">
-        <v>476.0</v>
+        <v>474.0</v>
       </c>
       <c r="D282" t="n" s="12">
-        <v>11170.0</v>
+        <v>11147.0</v>
       </c>
       <c r="E282" t="n" s="12">
-        <v>10262.0</v>
+        <v>10240.0</v>
       </c>
       <c r="F282" t="n" s="12">
-        <v>3172.0</v>
+        <v>3165.0</v>
       </c>
       <c r="G282" t="n" s="12">
-        <v>11174.0</v>
+        <v>11151.0</v>
       </c>
       <c r="H282" t="n" s="12">
-        <v>1928.0</v>
+        <v>1926.0</v>
       </c>
       <c r="I282" t="n" s="12">
-        <v>1347.0</v>
+        <v>1346.0</v>
       </c>
       <c r="J282" t="n" s="12">
         <v>509.0</v>
       </c>
       <c r="K282" t="n" s="12">
-        <v>6650.0</v>
+        <v>6632.0</v>
       </c>
       <c r="L282" t="n" s="12">
-        <v>14640.0</v>
+        <v>14601.0</v>
       </c>
       <c r="M282" t="n" s="12">
-        <v>2449.0</v>
+        <v>2445.0</v>
       </c>
       <c r="N282" t="n" s="12">
-        <v>53516.0</v>
+        <v>53398.0</v>
       </c>
     </row>
     <row r="283">
@@ -12167,40 +12167,40 @@
         <v>29</v>
       </c>
       <c r="C283" t="n" s="12">
-        <v>1664.9</v>
+        <v>1658.4</v>
       </c>
       <c r="D283" t="n" s="12">
-        <v>1438.7</v>
+        <v>1434.4</v>
       </c>
       <c r="E283" t="n" s="12">
-        <v>1431.4</v>
+        <v>1426.9</v>
       </c>
       <c r="F283" t="n" s="12">
-        <v>1559.9</v>
+        <v>1557.8</v>
       </c>
       <c r="G283" t="n" s="12">
-        <v>1287.0</v>
+        <v>1285.3</v>
       </c>
       <c r="H283" t="n" s="12">
-        <v>1507.4</v>
+        <v>1504.9</v>
       </c>
       <c r="I283" t="n" s="12">
-        <v>1464.8</v>
+        <v>1462.2</v>
       </c>
       <c r="J283" t="n" s="12">
-        <v>1220.3</v>
+        <v>1217.8</v>
       </c>
       <c r="K283" t="n" s="12">
-        <v>1332.8</v>
+        <v>1330.5</v>
       </c>
       <c r="L283" t="n" s="12">
-        <v>1337.0</v>
+        <v>1334.4</v>
       </c>
       <c r="M283" t="n" s="12">
-        <v>1053.5</v>
+        <v>1051.3</v>
       </c>
       <c r="N283" t="n" s="12">
-        <v>1349.3</v>
+        <v>1346.7</v>
       </c>
     </row>
     <row r="284">
@@ -12211,40 +12211,40 @@
         <v>29</v>
       </c>
       <c r="C284" t="n" s="12">
-        <v>1333.0</v>
+        <v>1325.0</v>
       </c>
       <c r="D284" t="n" s="12">
-        <v>1422.6</v>
+        <v>1418.2</v>
       </c>
       <c r="E284" t="n" s="12">
-        <v>1414.7</v>
+        <v>1410.1</v>
       </c>
       <c r="F284" t="n" s="12">
-        <v>1467.9</v>
+        <v>1465.5</v>
       </c>
       <c r="G284" t="n" s="12">
-        <v>1229.5</v>
+        <v>1227.8</v>
       </c>
       <c r="H284" t="n" s="12">
-        <v>1476.5</v>
+        <v>1473.8</v>
       </c>
       <c r="I284" t="n" s="12">
-        <v>1406.3</v>
+        <v>1403.5</v>
       </c>
       <c r="J284" t="n" s="12">
-        <v>1178.3</v>
+        <v>1175.7</v>
       </c>
       <c r="K284" t="n" s="12">
-        <v>1261.5</v>
+        <v>1258.7</v>
       </c>
       <c r="L284" t="n" s="12">
-        <v>1326.0</v>
+        <v>1323.2</v>
       </c>
       <c r="M284" t="n" s="12">
-        <v>970.4</v>
+        <v>967.9</v>
       </c>
       <c r="N284" t="n" s="12">
-        <v>1305.6</v>
+        <v>1302.7</v>
       </c>
     </row>
     <row r="285">
@@ -12324,7 +12324,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:34:55&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:40:30&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - Employment years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Employment years.xlsx
@@ -216,7 +216,7 @@
     <t>Agency, Nürnberg.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:40:25</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:31:54</t>
   </si>
 </sst>
 </file>
@@ -12324,7 +12324,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:40:30&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:31:59&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>